--- a/biology/Zoologie/Ambulyx_canescens/Ambulyx_canescens.xlsx
+++ b/biology/Zoologie/Ambulyx_canescens/Ambulyx_canescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ambulyx canescens est une espèce de lépidoptères de la famille des Sphingidae, sous-famille des Smerinthinae, tribu des Ambulycini, et du genre Ambulyx.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Avers du mâle (coll.MHNT)
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est connue en Indochine, en Malaisie, à Sumatra, à Java, à Bornéo et aux Philippines.
 </t>
@@ -577,9 +593,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est considéré comme un ravageur forestier, car ses chenille se nourrissent des feuilles du jeune Dryobalanops lanceolata. Des chenilles ont également été élevées sur Shorea lepidota[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est considéré comme un ravageur forestier, car ses chenille se nourrissent des feuilles du jeune Dryobalanops lanceolata. Des chenilles ont également été élevées sur Shorea lepidota.
 </t>
         </is>
       </c>
@@ -608,16 +626,86 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Ambulyx canescens a été décrite par l'entomologiste britannique Francis Walker en 1866 sous le nom initial de Basiana canescens[2].
-Synonymie
-Basiana canescens Walker 1866 Protonyme
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Ambulyx canescens a été décrite par l'entomologiste britannique Francis Walker en 1866 sous le nom initial de Basiana canescens.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ambulyx_canescens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ambulyx_canescens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Basiana canescens Walker 1866 Protonyme
 Ambulyx argentata Druce, 1882
-Oxyambulyx canescens Walker; Rothschild &amp; Jordan, 1903
-Liste des sous espèces
-Ambulyx canescens canescens
-Ambulyx canescens flava (Clark, 1924) [3]
+Oxyambulyx canescens Walker; Rothschild &amp; Jordan, 1903</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ambulyx_canescens</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ambulyx_canescens</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des sous espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambulyx canescens canescens
+Ambulyx canescens flava (Clark, 1924) 
 Ambulyx canescens flavocelebensis
 			Ambulyx canescens flava mâle (coll.MHNT)
 			Ambulyx canescens flava mâle (coll.MHNT)
